--- a/data/srma_prom.xlsx
+++ b/data/srma_prom.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A09C3F-1E9B-454B-9A60-99E9673CFFE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192630B5-3881-473A-B45A-4F93931194FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, et al. [</t>
+      <t>, et al. [40</t>
     </r>
     <r>
       <rPr>
@@ -116,7 +116,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>37]</t>
+      <t>]</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,9 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
